--- a/helper/City.xlsx
+++ b/helper/City.xlsx
@@ -139,7 +139,7 @@
     <t>NIO_Space_Bergen</t>
   </si>
   <si>
-    <t>NIO_House_Duesseldorf</t>
+    <t>NIO_House_Duesseldorf_</t>
   </si>
 </sst>
 </file>

--- a/helper/City.xlsx
+++ b/helper/City.xlsx
@@ -85,7 +85,7 @@
     <t>roy_kern,maximilian_sand,niklas_hirth,shanan_lasrado,dennis_gerhard,dipak_kandel,francesco_mureddu,ekrem_tekinoez,ruven_waldner,christian_bode,yaghy_peter,manuel_endres,tobias_elie,sankari_hilael,jacqueline_schroeder,florian_treml,julian_schreiner,jilly_hu</t>
   </si>
   <si>
-    <t>mikkel_knagenhjelm,0,haakon_klem,magne_heggemoen,leonarnt_nasai,kristiane_larsson,ola_dalby,ola_smines,haakon_klette,ali_kazmi,sammy_hussain,0,josephus_padilla,jingyi_qu,jonchristian_aardal,jangir_taher,sunniva_leonsen,stine_skyseth,marthe_grindalen,stig_lura,manbir_singh,jawad_afzali,jermaine_odom,martin_widing,drazen_duric,sebastian_huus,kai_parsa,william_tjaum,tayyab_intasar,0,magnus_lovrod,jalil_saleem,renate_eliesen1,jeppe_schjerpen,sara_meloysund,vijay_sharma,glenn_wallander,alexander_spiridonov,andreas_nyman,marius_bratli,sefa_cabar,sebastian_hellerud,marius_hayler,andreas_kyriakou1,pawel_frackowiak,romina_dehzani,monica_sand,farid_ofkir,artem_garibian,karol_wodyk,sadia_Aden_Mohamed,faiz_aslam,kjersti_naeringsrud,mathias_lindbeck,eirik_aspaas,karolina_wolnik,per_brandvik,asbjoern_mitusch,jay_murugananthan,jimmy_nguyen,simon_rask,an_ho,tom_brueland</t>
+    <t>mikkel_knagenhjelm,haakon_klem,magne_heggemoen,leonarnt_nasai,kristiane_larsson,ola_dalby,ola_smines,haakon_klette,ali_kazmi,sammy_hussain,josephus_padilla,jingyi_qu,jonchristian_aardal,jangir_taher,sunniva_leonsen,stine_skyseth,marthe_grindalen,stig_lura,manbir_singh,jawad_afzali,jermaine_odom,martin_widing,drazen_duric,sebastian_huus,kai_parsa,william_tjaum,tayyab_intasar,magnus_lovrod,jalil_saleem,renate_eliesen1,jeppe_schjerpen,sara_meloysund,vijay_sharma,glenn_wallander,alexander_spiridonov,andreas_nyman,marius_bratli,sefa_cabar,sebastian_hellerud,marius_hayler,andreas_kyriakou1,pawel_frackowiak,romina_dehzani,monica_sand,farid_ofkir,artem_garibian,karol_wodyk,sadia_Aden_Mohamed,faiz_aslam,kjersti_naeringsrud,mathias_lindbeck,eirik_aspaas,karolina_wolnik,per_brandvik,asbjoern_mitusch,jay_murugananthan,jimmy_nguyen,simon_rask,an_ho,tom_brueland</t>
   </si>
   <si>
     <t>georg_bruce,andrew_parsons,marcel_bartelik,roberto_pavon,michael_hathaway,tom_bauer,daniel_mergler,philipp_maier,scott_baines,minh_tran,stephan_schulz,chutong_liu,daniel_sturm,stephan_mayer,sven_muckert,sebastian_hillenbach,devis_duong,behnoud_behmanesh,matthias_becher,lisong_meng,bjoern_baumann,ole_gravenhorst,robin_haeger</t>

--- a/helper/City.xlsx
+++ b/helper/City.xlsx
@@ -73,7 +73,7 @@
     <t>Duesseldorf</t>
   </si>
   <si>
-    <t>LINK</t>
+    <t>Click Me</t>
   </si>
   <si>
     <t>chris_chen1,winnie_wu1,hailee_han,christian_sieling,chenqi_peng,shaohua_guo,wenchao_cui1,joy_zhu1,joy_yin,effy_song,yujie_jia,evelyn_zhao,maxine_yu,zitong_pan,meiling_wu,ziye_chen,liam_lu,wenlu_ma,hiroshi_watari,sarah_opfer,charlotte_liu1,chen_gong,daniel_gao,echo_zeng,tristan_vonballuseck,sizhe_huang,anastasia_yu,di_hu1,novak_birisic,sami_li,caesar_qian,zoey_li1,daisy_xiao,wei_qiang,eunice_ho,hongyi_ji,jing_hu,qianling_duan,timo_herrmann,jorry_zhou,sherry_li3,jerry_liu3,dale_li,wanli_ren,julie_jiang,justin_chen1,hun_huang,jessica_fu,ranee_miao</t>

--- a/helper/City.xlsx
+++ b/helper/City.xlsx
@@ -76,13 +76,13 @@
     <t>Click Me</t>
   </si>
   <si>
-    <t>chris_chen1,winnie_wu1,hailee_han,christian_sieling,chenqi_peng,shaohua_guo,wenchao_cui1,joy_zhu1,joy_yin,effy_song,yujie_jia,evelyn_zhao,maxine_yu,zitong_pan,meiling_wu,ziye_chen,liam_lu,wenlu_ma,hiroshi_watari,sarah_opfer,charlotte_liu1,chen_gong,daniel_gao,echo_zeng,tristan_vonballuseck,sizhe_huang,anastasia_yu,di_hu1,novak_birisic,sami_li,caesar_qian,zoey_li1,daisy_xiao,wei_qiang,eunice_ho,hongyi_ji,jing_hu,qianling_duan,timo_herrmann,jorry_zhou,sherry_li3,jerry_liu3,dale_li,wanli_ren,julie_jiang,justin_chen1,hun_huang,jessica_fu,ranee_miao</t>
-  </si>
-  <si>
-    <t>moritz_croessmann,isabell_delitz,tobias_niederhofer,waled_enani,patrick_mitchell,ryan_stodden,gerald_krainer,juliane_weinschenk,anastasiia_kovalenko,julien_jung,benjamin_hirschfeld,elise_chen,bingqing_tong1,chan_jun,marlies_hagenbach,andreas_roehl,sebastian_buesing,alexander_beier,daniel_wadle,karam_alnafous,saeed_erfani,dawid_mindur,sedat_taspinar,moritz_bayer,sean_richardson,marco_spiertz,fernanda_mejia,philipp_leinekugel,julia_bock,laura_peschke,martin_hock,belinda_ulrich,jan_bode,jan_krueger,simon_fiala,antonia_hauf,marco_wegner,stefan_pielka,philip_aschendorf,alexander_kern,leon_reiff,dennis_konieczny,harald_krist,ahmad_elkadi,kangrui_wang,zakaria_khalaf,georgina_treen,anastasia_kozachenko,fab_scognamiglio,silvan_mesic,beier_zhang,sven_conrad,julien_braunholz,stephane_burger,marina_paradiso,andreas_sedlak,emilie_jung,claudia_huebner,yi_shen3,claudio_felice,jochen_elster,wadim_buchmueller,gregory_anderson,ralph_kranz,fabian_holst,veronica_akerblad,patricia_hammes,florian_fischer,christian_wiegand,alissia_lehle,tobias_beier,tanja_pyka,stephanie_strobel</t>
-  </si>
-  <si>
-    <t>roy_kern,maximilian_sand,niklas_hirth,shanan_lasrado,dennis_gerhard,dipak_kandel,francesco_mureddu,ekrem_tekinoez,ruven_waldner,christian_bode,yaghy_peter,manuel_endres,tobias_elie,sankari_hilael,jacqueline_schroeder,florian_treml,julian_schreiner,jilly_hu</t>
+    <t>chris_chen1,winnie_wu1,hailee_han,christian_sieling,chenqi_peng,shaohua_guo,wenchao_cui1,joy_zhu1,joy_yin,effy_song,yujie_jia,evelyn_zhao,maxine_yu,zitong_pan,meiling_wu,ziye_chen,liam_lu,wenlu_ma,hiroshi_watari,sarah_opfer,charlotte_liu1,chen_gong,daniel_gao,echo_zeng,tristan_vonballuseck,sizhe_huang,anastasia_yu,di_hu1,novak_birisic,sami_li,caesar_qian,zoey_li1,daisy_xiao,wei_qiang,eunice_ho,hongyi_ji,jing_hu,qianling_duan,timo_herrmann,jorry_zhou,sherry_li3,jerry_liu3,dale_li,wanli_ren,julie_jiang,justin_chen1,hun_huang,jessica_fu,ranee_miao,alexandre_gallo,heming_li,bella_lin,shuang_wu3,yantao_zhou,averie_zhu,bingqing_tong1,helen_baerbock,_jianwei_yin,_xilian_yu,richard_zhang1,_hao_yang1,_nicky_heidrich,jiabao_xu,jackson_xu1</t>
+  </si>
+  <si>
+    <t>moritz_croessmann,isabell_delitz,tobias_niederhofer,waled_enani,patrick_mitchell,ryan_stodden,gerald_krainer,juliane_weinschenk,anastasiia_kovalenko,julien_jung,benjamin_hirschfeld,elise_chen,chan_jun,marlies_hagenbach,andreas_roehl,sebastian_buesing,alexander_beier,daniel_wadle,karam_alnafous,saeed_erfani,dawid_mindur,sedat_taspinar,moritz_bayer,sean_richardson,marco_spiertz,fernanda_mejia,philipp_leinekugel,julia_bock,laura_peschke,martin_hock,belinda_ulrich,jan_bode,jan_krueger,simon_fiala,antonia_hauf,marco_wegner,stefan_pielka,philip_aschendorf,alexander_kern,leon_reiff,dennis_konieczny,harald_krist,ahmad_elkadi,kangrui_wang,zakaria_khalaf,georgina_treen,anastasia_kozachenko,fab_scognamiglio,silvan_mesic,beier_zhang,sven_conrad,julien_braunholz,stephane_burger,marina_paradiso,andreas_sedlak,emilie_jung,claudia_huebner,yi_shen3,claudio_felice,jochen_elster,wadim_buchmueller,gregory_anderson,ralph_kranz,fabian_holst,veronica_akerblad,patricia_hammes,florian_fischer,christian_wiegand,alissia_lehle,tobias_beier,tanja_pyka,stephanie_strobel,aldo_rosales,ana_bjelcic_o,anja_plank1,vlad_tarverdov,vassil_loukarsky_o,catherine_zhu,charilaos_kantas,siyang_chen2,chi_lo_o,dennis_mujic,emilia_dera_o,estefania_velez,fab_scognamiglio,julia_lichtmannecker,daniela_wimmer_nio_io</t>
+  </si>
+  <si>
+    <t>roy_kern,maximilian_sand,niklas_hirth,shanan_lasrado,dennis_gerhard,dipak_kandel,francesco_mureddu,ekrem_tekinoez,ruven_waldner,christian_bode,yaghy_peter,manuel_endres,tobias_elie,sankari_hilael,jacqueline_schroeder,florian_treml,julian_schreiner,jilly_hu,sheilla_campos_o,alexander_kunith,marc_bloch,depraute_rene,matrai_peter</t>
   </si>
   <si>
     <t>mikkel_knagenhjelm,haakon_klem,magne_heggemoen,leonarnt_nasai,kristiane_larsson,ola_dalby,ola_smines,haakon_klette,ali_kazmi,sammy_hussain,josephus_padilla,jingyi_qu,jonchristian_aardal,jangir_taher,sunniva_leonsen,stine_skyseth,marthe_grindalen,stig_lura,manbir_singh,jawad_afzali,jermaine_odom,martin_widing,drazen_duric,sebastian_huus,kai_parsa,william_tjaum,tayyab_intasar,magnus_lovrod,jalil_saleem,renate_eliesen1,jeppe_schjerpen,sara_meloysund,vijay_sharma,glenn_wallander,alexander_spiridonov,andreas_nyman,marius_bratli,sefa_cabar,sebastian_hellerud,marius_hayler,andreas_kyriakou1,pawel_frackowiak,romina_dehzani,monica_sand,farid_ofkir,artem_garibian,karol_wodyk,sadia_Aden_Mohamed,faiz_aslam,kjersti_naeringsrud,mathias_lindbeck,eirik_aspaas,karolina_wolnik,per_brandvik,asbjoern_mitusch,jay_murugananthan,jimmy_nguyen,simon_rask,an_ho,tom_brueland</t>
@@ -91,22 +91,22 @@
     <t>georg_bruce,andrew_parsons,marcel_bartelik,roberto_pavon,michael_hathaway,tom_bauer,daniel_mergler,philipp_maier,scott_baines,minh_tran,stephan_schulz,chutong_liu,daniel_sturm,stephan_mayer,sven_muckert,sebastian_hillenbach,devis_duong,behnoud_behmanesh,matthias_becher,lisong_meng,bjoern_baumann,ole_gravenhorst,robin_haeger</t>
   </si>
   <si>
-    <t>boris_mihailovic,stefan_gerea,robin_roosenstein,simone_barnabei,maxime_gottlieb,bob_valk,willemien_hobbelink,marco_verweij,tim_weener,ruben_keuter,luis_portas,ted_olsthoorn,joachim_pach,jasper_deman,tristan_hamelink,derk_timmer,marcel_rooijen,roelof_kluiver,yang_huang,julien_luijten,arun_paragh,clare_mummery,johan_emanuelsson,tim_noort,minko_sijpestein,adem_yerlikaya,vas_morrien,bana_boubou,brian_zhang,koen_peters,johnny_cheung,joris_coolen,maarten_mulder,koen_swennen,pepijn_gregorowitsch,yoram_hout,thijs_meijling,connor_mccoy,santo_bravo,mark_heiligers,daan_dorp,onno_duimel,gert_thomas,erwin_wolting,silvia_leeuw,nadim_mohammad</t>
-  </si>
-  <si>
-    <t>marc_hatt,mads_laustsen,daniel_dalsgaard,camilla_bowlin,hasan_abbasi,danni_dahl,christian_neergaard,maria_bonnerup,rasmus_jorgensen,anja_bruun,christian_almind,daniel_saxov,frederik_rorth,nick_nielsen,jonathan_stage,mara_pitiriciu,dejvid_noinovic,paolo_cova,akos_kiss,pernille_vive,rasmus_huus,patrick_hogenhav,jan_bierstedt,simon_mueller,marie_leeuwen,peter_marquard</t>
-  </si>
-  <si>
-    <t>andreas_loeoev,kenneth_forslund,christel_molin,sebastian_kare,rashed_almawed,carin_lundberg,robert_said,frida_eriksson,marcel_cucu,johanna_nilsson,niklas_gustafson,uffe_gustafsson,adrian_kare,gustaf_sjoeholm,louise_johansson,david_jonsson,erica_blomberg,mike_blomquist,karzan_mirza,robin_wiman,ackis_grammenidis,elias_said,rabih_botrous,daniel_erdtman,mattias_lundgren,janerik_eriksson,victor_lingfjord,jenny_samuelsson,sam_lindfors</t>
-  </si>
-  <si>
-    <t>matt_galvin</t>
+    <t>boris_mihailovic,stefan_gerea,robin_roosenstein,simone_barnabei,maxime_gottlieb,bob_valk,willemien_hobbelink,marco_verweij,tim_weener,ruben_keuter,luis_portas,ted_olsthoorn,joachim_pach,jasper_deman,tristan_hamelink,derk_timmer,marcel_rooijen,roelof_kluiver,yang_huang,julien_luijten,arun_paragh,clare_mummery,johan_emanuelsson,tim_noort,minko_sijpestein,adem_yerlikaya,vas_morrien,bana_boubou,brian_zhang,koen_peters,johnny_cheung,joris_coolen,maarten_mulder,koen_swennen,pepijn_gregorowitsch,yoram_hout,thijs_meijling,connor_mccoy,santo_bravo,mark_heiligers,daan_dorp,onno_duimel,gert_thomas,erwin_wolting,silvia_leeuw,nadim_mohammad,wenwen_jiang,wouter_hollander,wouter_hollander,shushan_khachatryan</t>
+  </si>
+  <si>
+    <t>marc_hatt,mads_laustsen,daniel_dalsgaard,camilla_bowlin,hasan_abbasi,danni_dahl,christian_neergaard,maria_bonnerup,rasmus_jorgensen,anja_bruun,christian_almind,daniel_saxov,frederik_rorth,nick_nielsen,jonathan_stage,mara_pitiriciu,dejvid_noinovic,paolo_cova,akos_kiss,pernille_vive,rasmus_huus,patrick_hogenhav,jan_bierstedt,simon_mueller,marie_leeuwen,peter_marquard,alice_bontridder,martin_rieder,loic_helleputte</t>
+  </si>
+  <si>
+    <t>andreas_loeoev,kenneth_forslund,christel_molin,sebastian_kare,rashed_almawed,carin_lundberg,robert_said,frida_eriksson,marcel_cucu,johanna_nilsson,niklas_gustafson,uffe_gustafsson,adrian_kare,gustaf_sjoeholm,louise_johansson,david_jonsson,erica_blomberg,mike_blomquist,karzan_mirza,robin_wiman,ackis_grammenidis,elias_said,rabih_botrous,daniel_erdtman,mattias_lundgren,janerik_eriksson,victor_lingfjord,jenny_samuelsson,sam_lindfors,fredrik_aslund1</t>
+  </si>
+  <si>
+    <t>matt_galvin,tom_wharfe,jon_higgins</t>
   </si>
   <si>
     <t>martin_nevstad,bawan_omar,celine_knapskog,nicolai_dammen</t>
   </si>
   <si>
-    <t>mate_mester,roland_parragh,kasper_klint,tibor_papp,melissa_cs,richard_vermeulen,alvaro_garcia,daniel_wijers,hans_beyer,szilard_vass,daniel_nielsen,erik_penning</t>
+    <t>mate_mester,roland_parragh,kasper_klint,tibor_papp,melissa_cs,richard_vermeulen,alvaro_garcia,daniel_wijers,hans_beyer,szilard_vass,daniel_nielsen,erik_penning,andre_tollefsen,attila_hudetz,gergo_almasi,martin_olsson</t>
   </si>
   <si>
     <t>bent_nygaard,ronit_aggarwal,jonas_vaage,xuesong_chen1</t>

--- a/helper/City.xlsx
+++ b/helper/City.xlsx
@@ -76,7 +76,7 @@
     <t>Click Me</t>
   </si>
   <si>
-    <t>chris_chen1,winnie_wu1,hailee_han,christian_sieling,chenqi_peng,shaohua_guo,wenchao_cui1,joy_zhu1,joy_yin,effy_song,yujie_jia,evelyn_zhao,maxine_yu,zitong_pan,meiling_wu,ziye_chen,liam_lu,wenlu_ma,hiroshi_watari,sarah_opfer,charlotte_liu1,chen_gong,daniel_gao,echo_zeng,tristan_vonballuseck,sizhe_huang,anastasia_yu,di_hu1,novak_birisic,sami_li,caesar_qian,zoey_li1,daisy_xiao,wei_qiang,eunice_ho,hongyi_ji,jing_hu,qianling_duan,timo_herrmann,jorry_zhou,sherry_li3,jerry_liu3,dale_li,wanli_ren,julie_jiang,justin_chen1,hun_huang,jessica_fu,ranee_miao,alexandre_gallo,heming_li,bella_lin,shuang_wu3,yantao_zhou,averie_zhu,bingqing_tong1,helen_baerbock,_jianwei_yin,_xilian_yu,richard_zhang1,_hao_yang1,_nicky_heidrich,jiabao_xu,jackson_xu1</t>
+    <t>chris_chen1,winnie_wu1,hailee_han,christian_sieling,chenqi_peng,shaohua_guo,wenchao_cui1,joy_zhu1,joy_yin,effy_song,yujie_jia,evelyn_zhao,maxine_yu,zitong_pan,meiling_wu,ziye_chen,liam_lu,wenlu_ma,hiroshi_watari,sarah_opfer,charlotte_liu1,chen_gong,daniel_gao,echo_zeng,tristan_vonballuseck,sizhe_huang,anastasia_yu,di_hu1,novak_birisic,sami_li,caesar_qian,zoey_li1,daisy_xiao,wei_qiang,eunice_ho,hongyi_ji,jing_hu,qianling_duan,timo_herrmann,jorry_zhou,sherry_li3,jerry_liu3,dale_li,wanli_ren,julie_jiang,justin_chen1,hun_huang,jessica_fu,ranee_miao,alexandre_gallo,heming_li,bella_lin,shuang_wu3,yantao_zhou,averie_zhu,bingqing_tong1,helen_baerbock, jianwei_yin, xilian_yu,richard_zhang1, hao_yang1, nicky_heidrich,jiabao_xu,jackson_xu1</t>
   </si>
   <si>
     <t>moritz_croessmann,isabell_delitz,tobias_niederhofer,waled_enani,patrick_mitchell,ryan_stodden,gerald_krainer,juliane_weinschenk,anastasiia_kovalenko,julien_jung,benjamin_hirschfeld,elise_chen,chan_jun,marlies_hagenbach,andreas_roehl,sebastian_buesing,alexander_beier,daniel_wadle,karam_alnafous,saeed_erfani,dawid_mindur,sedat_taspinar,moritz_bayer,sean_richardson,marco_spiertz,fernanda_mejia,philipp_leinekugel,julia_bock,laura_peschke,martin_hock,belinda_ulrich,jan_bode,jan_krueger,simon_fiala,antonia_hauf,marco_wegner,stefan_pielka,philip_aschendorf,alexander_kern,leon_reiff,dennis_konieczny,harald_krist,ahmad_elkadi,kangrui_wang,zakaria_khalaf,georgina_treen,anastasia_kozachenko,fab_scognamiglio,silvan_mesic,beier_zhang,sven_conrad,julien_braunholz,stephane_burger,marina_paradiso,andreas_sedlak,emilie_jung,claudia_huebner,yi_shen3,claudio_felice,jochen_elster,wadim_buchmueller,gregory_anderson,ralph_kranz,fabian_holst,veronica_akerblad,patricia_hammes,florian_fischer,christian_wiegand,alissia_lehle,tobias_beier,tanja_pyka,stephanie_strobel,aldo_rosales,ana_bjelcic_o,anja_plank1,vlad_tarverdov,vassil_loukarsky_o,catherine_zhu,charilaos_kantas,siyang_chen2,chi_lo_o,dennis_mujic,emilia_dera_o,estefania_velez,fab_scognamiglio,julia_lichtmannecker,daniela_wimmer_nio_io</t>
@@ -139,7 +139,7 @@
     <t>NIO_Space_Bergen</t>
   </si>
   <si>
-    <t>NIO_House_Duesseldorf_</t>
+    <t>NIO_House_Duesseldorf</t>
   </si>
 </sst>
 </file>

--- a/helper/City.xlsx
+++ b/helper/City.xlsx
@@ -76,7 +76,7 @@
     <t>Click Me</t>
   </si>
   <si>
-    <t>chris_chen1,winnie_wu1,hailee_han,christian_sieling,chenqi_peng,shaohua_guo,wenchao_cui1,joy_zhu1,joy_yin,effy_song,yujie_jia,evelyn_zhao,maxine_yu,zitong_pan,meiling_wu,ziye_chen,liam_lu,wenlu_ma,hiroshi_watari,sarah_opfer,charlotte_liu1,chen_gong,daniel_gao,echo_zeng,tristan_vonballuseck,sizhe_huang,anastasia_yu,di_hu1,novak_birisic,sami_li,caesar_qian,zoey_li1,daisy_xiao,wei_qiang,eunice_ho,hongyi_ji,jing_hu,qianling_duan,timo_herrmann,jorry_zhou,sherry_li3,jerry_liu3,dale_li,wanli_ren,julie_jiang,justin_chen1,hun_huang,jessica_fu,ranee_miao,alexandre_gallo,heming_li,bella_lin,shuang_wu3,yantao_zhou,averie_zhu,bingqing_tong1,helen_baerbock, jianwei_yin, xilian_yu,richard_zhang1, hao_yang1, nicky_heidrich,jiabao_xu,jackson_xu1</t>
+    <t>chris_chen1,winnie_wu1,hailee_han,christian_sieling,chenqi_peng,shaohua_guo,wenchao_cui1,joy_zhu1,joy_yin,effy_song,yujie_jia,evelyn_zhao,maxine_yu,zitong_pan,meiling_wu,ziye_chen,liam_lu,wenlu_ma,hiroshi_watari,sarah_opfer,charlotte_liu1,chen_gong,echo_zeng,tristan_vonballuseck,sizhe_huang,anastasia_yu,di_hu1,novak_birisic,sami_li,caesar_qian,zoey_li1,daisy_xiao,wei_qiang,eunice_ho,hongyi_ji,jing_hu,qianling_duan,timo_herrmann,jorry_zhou,sherry_li3,jerry_liu3,dale_li,wanli_ren,julie_jiang,justin_chen1,hun_huang,jessica_fu,ranee_miao,alexandre_gallo,heming_li,bella_lin,shuang_wu3,yantao_zhou,averie_zhu,bingqing_tong1,helen_baerbock, jianwei_yin, xilian_yu,richard_zhang1, hao_yang1, nicky_heidrich,jiabao_xu,jackson_xu1</t>
   </si>
   <si>
     <t>moritz_croessmann,isabell_delitz,tobias_niederhofer,waled_enani,patrick_mitchell,ryan_stodden,gerald_krainer,juliane_weinschenk,anastasiia_kovalenko,julien_jung,benjamin_hirschfeld,elise_chen,chan_jun,marlies_hagenbach,andreas_roehl,sebastian_buesing,alexander_beier,daniel_wadle,karam_alnafous,saeed_erfani,dawid_mindur,sedat_taspinar,moritz_bayer,sean_richardson,marco_spiertz,fernanda_mejia,philipp_leinekugel,julia_bock,laura_peschke,martin_hock,belinda_ulrich,jan_bode,jan_krueger,simon_fiala,antonia_hauf,marco_wegner,stefan_pielka,philip_aschendorf,alexander_kern,leon_reiff,dennis_konieczny,harald_krist,ahmad_elkadi,kangrui_wang,zakaria_khalaf,georgina_treen,anastasia_kozachenko,fab_scognamiglio,silvan_mesic,beier_zhang,sven_conrad,julien_braunholz,stephane_burger,marina_paradiso,andreas_sedlak,emilie_jung,claudia_huebner,yi_shen3,claudio_felice,jochen_elster,wadim_buchmueller,gregory_anderson,ralph_kranz,fabian_holst,veronica_akerblad,patricia_hammes,florian_fischer,christian_wiegand,alissia_lehle,tobias_beier,tanja_pyka,stephanie_strobel,aldo_rosales,ana_bjelcic_o,anja_plank1,vlad_tarverdov,vassil_loukarsky_o,catherine_zhu,charilaos_kantas,siyang_chen2,chi_lo_o,dennis_mujic,emilia_dera_o,estefania_velez,fab_scognamiglio,julia_lichtmannecker,daniela_wimmer_nio_io</t>

--- a/helper/City.xlsx
+++ b/helper/City.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>City</t>
   </si>
@@ -73,31 +73,43 @@
     <t>Duesseldorf</t>
   </si>
   <si>
+    <t>Hefei</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Denmark_Remote</t>
+  </si>
+  <si>
+    <t>Guangzhou</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
-    <t>chris_chen1,winnie_wu1,hailee_han,christian_sieling,chenqi_peng,shaohua_guo,wenchao_cui1,joy_zhu1,joy_yin,effy_song,yujie_jia,evelyn_zhao,maxine_yu,zitong_pan,meiling_wu,ziye_chen,liam_lu,wenlu_ma,hiroshi_watari,sarah_opfer,charlotte_liu1,chen_gong,echo_zeng,tristan_vonballuseck,sizhe_huang,anastasia_yu,di_hu1,novak_birisic,sami_li,caesar_qian,zoey_li1,daisy_xiao,wei_qiang,eunice_ho,hongyi_ji,jing_hu,qianling_duan,timo_herrmann,jorry_zhou,sherry_li3,jerry_liu3,dale_li,wanli_ren,julie_jiang,justin_chen1,hun_huang,jessica_fu,ranee_miao,alexandre_gallo,heming_li,bella_lin,shuang_wu3,yantao_zhou,averie_zhu,bingqing_tong1,helen_baerbock, jianwei_yin, xilian_yu,richard_zhang1, hao_yang1, nicky_heidrich,jiabao_xu,jackson_xu1</t>
-  </si>
-  <si>
-    <t>moritz_croessmann,isabell_delitz,tobias_niederhofer,waled_enani,patrick_mitchell,ryan_stodden,gerald_krainer,juliane_weinschenk,anastasiia_kovalenko,julien_jung,benjamin_hirschfeld,elise_chen,chan_jun,marlies_hagenbach,andreas_roehl,sebastian_buesing,alexander_beier,daniel_wadle,karam_alnafous,saeed_erfani,dawid_mindur,sedat_taspinar,moritz_bayer,sean_richardson,marco_spiertz,fernanda_mejia,philipp_leinekugel,julia_bock,laura_peschke,martin_hock,belinda_ulrich,jan_bode,jan_krueger,simon_fiala,antonia_hauf,marco_wegner,stefan_pielka,philip_aschendorf,alexander_kern,leon_reiff,dennis_konieczny,harald_krist,ahmad_elkadi,kangrui_wang,zakaria_khalaf,georgina_treen,anastasia_kozachenko,fab_scognamiglio,silvan_mesic,beier_zhang,sven_conrad,julien_braunholz,stephane_burger,marina_paradiso,andreas_sedlak,emilie_jung,claudia_huebner,yi_shen3,claudio_felice,jochen_elster,wadim_buchmueller,gregory_anderson,ralph_kranz,fabian_holst,veronica_akerblad,patricia_hammes,florian_fischer,christian_wiegand,alissia_lehle,tobias_beier,tanja_pyka,stephanie_strobel,aldo_rosales,ana_bjelcic_o,anja_plank1,vlad_tarverdov,vassil_loukarsky_o,catherine_zhu,charilaos_kantas,siyang_chen2,chi_lo_o,dennis_mujic,emilia_dera_o,estefania_velez,fab_scognamiglio,julia_lichtmannecker,daniela_wimmer_nio_io</t>
+    <t>chris_chen1,winnie_wu1,hailee_han,christian_sieling,chenqi_peng,shaohua_guo,wenchao_cui1,joy_zhu1,joy_yin,effy_song,yujie_jia,evelyn_zhao,maxine_yu,zitong_pan,meiling_wu,ziye_chen,liam_lu,wenlu_ma,hiroshi_watari,sarah_opfer,charlotte_liu1,chen_gong,echo_zeng,tristan_vonballuseck,sizhe_huang,anastasia_yu,di_hu1,novak_birisic,sami_li,caesar_qian,zoey_li1,daisy_xiao,wei_qiang,eunice_ho,hongyi_ji,jing_hu,qianling_duan,timo_herrmann,jorry_zhou,sherry_li3,jerry_liu3,dale_li,wanli_ren,julie_jiang,justin_chen1,hun_huang,jessica_fu,ranee_miao,alexandre_gallo,heming_li,bella_lin,shuang_wu3,yantao_zhou,averie_zhu,bingqing_tong1,helen_baerbock, jianwei_yin, xilian_yu,richard_zhang1, hao_yang1, nicky_heidrich,jiabao_xu,jackson_xu1,beckie_fan,brandy_lu, sharon_zhou, finn_xue,amber_zhu,jessie_xu,lina_liu,chao_li19,yongshi_xu, jiajun_yuan, fangpin_weng,chris_di,chengguo_shi,sarah_ding,dongxiao_sun,finn_xue,henry_shen,vincent_wen,tina_fan,robert_huang,zhongjie_fu,mingqiang_li, junye_shao, haiyun_zhou,stephen_liu</t>
+  </si>
+  <si>
+    <t>moritz_croessmann,isabell_delitz,tobias_niederhofer,waled_enani,patrick_mitchell,ryan_stodden,gerald_krainer,juliane_weinschenk,anastasiia_kovalenko,julien_jung,benjamin_hirschfeld,elise_chen,chan_jun,marlies_hagenbach,andreas_roehl,sebastian_buesing,alexander_beier,daniel_wadle,karam_alnafous,saeed_erfani,dawid_mindur,sedat_taspinar,moritz_bayer,sean_richardson,marco_spiertz,fernanda_mejia,philipp_leinekugel,julia_bock,laura_peschke,martin_hock,belinda_ulrich,jan_bode,jan_krueger,simon_fiala,antonia_hauf,marco_wegner,stefan_pielka,philip_aschendorf,alexander_kern,leon_reiff,dennis_konieczny,harald_krist,ahmad_elkadi,kangrui_wang,zakaria_khalaf,georgina_treen,anastasia_kozachenko,fab_scognamiglio,silvan_mesic,beier_zhang,sven_conrad,julien_braunholz,stephane_burger,marina_paradiso,andreas_sedlak,emilie_jung,claudia_huebner,yi_shen3,claudio_felice,jochen_elster,wadim_buchmueller,gregory_anderson,ralph_kranz,fabian_holst,veronica_akerblad,patricia_hammes,florian_fischer,christian_wiegand,alissia_lehle,tobias_beier,tanja_pyka,stephanie_strobel,aldo_rosales,ana_bjelcic_o,anja_plank1,vlad_tarverdov,vassil_loukarsky_o,catherine_zhu,charilaos_kantas,siyang_chen2,chi_lo_o,dennis_mujic,emilia_dera_o,estefania_velez,fab_scognamiglio,julia_lichtmannecker,daniela_wimmer_nio_io,yue_ma2,Pallab_medhi,jingqi_zhuang,marin_scholz,peng_wang17,mohamed_rizwan,moritz_wefelscheid,zhen_lai,benjamin_steinmetz,christian_rebo,francis_ji,lukas_storch,niklas_andersson,arnaud_rongy, fatima_galean,daniel_medawar,tobias_schrempf,sebastian_salera,marius_keil,pep_pujolmur,stefan_schneider,olga_khryapchenkova,yalcin_parlak, tino_tezel</t>
   </si>
   <si>
     <t>roy_kern,maximilian_sand,niklas_hirth,shanan_lasrado,dennis_gerhard,dipak_kandel,francesco_mureddu,ekrem_tekinoez,ruven_waldner,christian_bode,yaghy_peter,manuel_endres,tobias_elie,sankari_hilael,jacqueline_schroeder,florian_treml,julian_schreiner,jilly_hu,sheilla_campos_o,alexander_kunith,marc_bloch,depraute_rene,matrai_peter</t>
   </si>
   <si>
-    <t>mikkel_knagenhjelm,haakon_klem,magne_heggemoen,leonarnt_nasai,kristiane_larsson,ola_dalby,ola_smines,haakon_klette,ali_kazmi,sammy_hussain,josephus_padilla,jingyi_qu,jonchristian_aardal,jangir_taher,sunniva_leonsen,stine_skyseth,marthe_grindalen,stig_lura,manbir_singh,jawad_afzali,jermaine_odom,martin_widing,drazen_duric,sebastian_huus,kai_parsa,william_tjaum,tayyab_intasar,magnus_lovrod,jalil_saleem,renate_eliesen1,jeppe_schjerpen,sara_meloysund,vijay_sharma,glenn_wallander,alexander_spiridonov,andreas_nyman,marius_bratli,sefa_cabar,sebastian_hellerud,marius_hayler,andreas_kyriakou1,pawel_frackowiak,romina_dehzani,monica_sand,farid_ofkir,artem_garibian,karol_wodyk,sadia_Aden_Mohamed,faiz_aslam,kjersti_naeringsrud,mathias_lindbeck,eirik_aspaas,karolina_wolnik,per_brandvik,asbjoern_mitusch,jay_murugananthan,jimmy_nguyen,simon_rask,an_ho,tom_brueland</t>
+    <t>mikkel_knagenhjelm,haakon_klem,magne_heggemoen,leonarnt_nasai,kristiane_larsson,ola_dalby,ola_smines,haakon_klette,ali_kazmi,sammy_hussain,josephus_padilla,jingyi_qu,jonchristian_aardal,jangir_taher,sunniva_leonsen,stine_skyseth,marthe_grindalen,stig_lura,manbir_singh,jawad_afzali,jermaine_odom,martin_widing,drazen_duric,sebastian_huus,kai_parsa,william_tjaum,tayyab_intasar,magnus_lovrod,jalil_saleem,renate_eliesen1,jeppe_schjerpen,sara_meloysund,vijay_sharma,glenn_wallander,alexander_spiridonov,andreas_nyman,marius_bratli,sefa_cabar,sebastian_hellerud,marius_hayler,andreas_kyriakou1,pawel_frackowiak,romina_dehzani,monica_sand,farid_ofkir,artem_garibian,karol_wodyk,sadia_Aden_Mohamed,faiz_aslam,kjersti_naeringsrud,mathias_lindbeck,eirik_aspaas,karolina_wolnik,per_brandvik,asbjoern_mitusch,jay_murugananthan,jimmy_nguyen,simon_rask,an_ho,tom_brueland, lovepreet_singh, usman_abbas1, magne_heggemoen,zhongye_xue1,marianne_moelmen, steinar_sundelin</t>
   </si>
   <si>
     <t>georg_bruce,andrew_parsons,marcel_bartelik,roberto_pavon,michael_hathaway,tom_bauer,daniel_mergler,philipp_maier,scott_baines,minh_tran,stephan_schulz,chutong_liu,daniel_sturm,stephan_mayer,sven_muckert,sebastian_hillenbach,devis_duong,behnoud_behmanesh,matthias_becher,lisong_meng,bjoern_baumann,ole_gravenhorst,robin_haeger</t>
   </si>
   <si>
-    <t>boris_mihailovic,stefan_gerea,robin_roosenstein,simone_barnabei,maxime_gottlieb,bob_valk,willemien_hobbelink,marco_verweij,tim_weener,ruben_keuter,luis_portas,ted_olsthoorn,joachim_pach,jasper_deman,tristan_hamelink,derk_timmer,marcel_rooijen,roelof_kluiver,yang_huang,julien_luijten,arun_paragh,clare_mummery,johan_emanuelsson,tim_noort,minko_sijpestein,adem_yerlikaya,vas_morrien,bana_boubou,brian_zhang,koen_peters,johnny_cheung,joris_coolen,maarten_mulder,koen_swennen,pepijn_gregorowitsch,yoram_hout,thijs_meijling,connor_mccoy,santo_bravo,mark_heiligers,daan_dorp,onno_duimel,gert_thomas,erwin_wolting,silvia_leeuw,nadim_mohammad,wenwen_jiang,wouter_hollander,wouter_hollander,shushan_khachatryan</t>
+    <t>boris_mihailovic,stefan_gerea,robin_roosenstein,simone_barnabei,maxime_gottlieb,bob_valk,willemien_hobbelink,marco_verweij,tim_weener,ruben_keuter,luis_portas,ted_olsthoorn,joachim_pach,jasper_deman,tristan_hamelink,derk_timmer,marcel_rooijen,roelof_kluiver,yang_huang,julien_luijten,arun_paragh,clare_mummery,johan_emanuelsson,tim_noort,minko_sijpestein,adem_yerlikaya,vas_morrien,bana_boubou,brian_zhang,koen_peters,johnny_cheung,joris_coolen,maarten_mulder,koen_swennen,pepijn_gregorowitsch,yoram_hout,thijs_meijling,connor_mccoy,santo_bravo,mark_heiligers,daan_dorp,onno_duimel,gert_thomas,erwin_wolting,silvia_leeuw,nadim_mohammad,wenwen_jiang,wouter_hollander,wouter_hollander,shushan_khachatryan,robbie_maes, berry_spee,syang_liu,quinten_robertz,rutger_berg, katalin_konye,richard_wijk,renata_wolak, syang_liu</t>
   </si>
   <si>
     <t>marc_hatt,mads_laustsen,daniel_dalsgaard,camilla_bowlin,hasan_abbasi,danni_dahl,christian_neergaard,maria_bonnerup,rasmus_jorgensen,anja_bruun,christian_almind,daniel_saxov,frederik_rorth,nick_nielsen,jonathan_stage,mara_pitiriciu,dejvid_noinovic,paolo_cova,akos_kiss,pernille_vive,rasmus_huus,patrick_hogenhav,jan_bierstedt,simon_mueller,marie_leeuwen,peter_marquard,alice_bontridder,martin_rieder,loic_helleputte</t>
   </si>
   <si>
-    <t>andreas_loeoev,kenneth_forslund,christel_molin,sebastian_kare,rashed_almawed,carin_lundberg,robert_said,frida_eriksson,marcel_cucu,johanna_nilsson,niklas_gustafson,uffe_gustafsson,adrian_kare,gustaf_sjoeholm,louise_johansson,david_jonsson,erica_blomberg,mike_blomquist,karzan_mirza,robin_wiman,ackis_grammenidis,elias_said,rabih_botrous,daniel_erdtman,mattias_lundgren,janerik_eriksson,victor_lingfjord,jenny_samuelsson,sam_lindfors,fredrik_aslund1</t>
+    <t>andreas_loeoev,kenneth_forslund,christel_molin,sebastian_kare,rashed_almawed,carin_lundberg,robert_said,frida_eriksson,marcel_cucu,johanna_nilsson,niklas_gustafson,uffe_gustafsson,adrian_kare,gustaf_sjoeholm,louise_johansson,david_jonsson,erica_blomberg,mike_blomquist,karzan_mirza,robin_wiman,ackis_grammenidis,elias_said,rabih_botrous,daniel_erdtman,mattias_lundgren,janerik_eriksson,victor_lingfjord,jenny_samuelsson,sam_lindfors,fredrik_aslund1,chan_jun,emil_andersson, rikard_svensson,paula_ramirez, kajsa_ivansson,yu_huang6</t>
   </si>
   <si>
     <t>matt_galvin,tom_wharfe,jon_higgins</t>
@@ -113,6 +125,18 @@
   </si>
   <si>
     <t>thomas_davis,patrik_hjelmseth,otto_hansen,morten_vorvik</t>
+  </si>
+  <si>
+    <t>chenfeng_zou,meng_li3</t>
+  </si>
+  <si>
+    <t>vince_bi,carole_zhang,gavin_hu</t>
+  </si>
+  <si>
+    <t>adam_ghadban, michael_salomon</t>
+  </si>
+  <si>
+    <t>yongmou_huang</t>
   </si>
   <si>
     <t>Germany</t>
@@ -497,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +552,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -542,16 +566,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -562,13 +586,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -579,13 +603,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -596,13 +620,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -613,13 +637,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -630,10 +654,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -644,13 +668,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -661,13 +685,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -678,16 +702,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -698,13 +722,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -715,13 +739,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -732,13 +756,13 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -749,10 +773,66 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="F15" t="s">
-        <v>41</v>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/helper/City.xlsx
+++ b/helper/City.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>City</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Guangzhou</t>
   </si>
   <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
@@ -97,19 +100,19 @@
     <t>roy_kern,maximilian_sand,niklas_hirth,shanan_lasrado,dennis_gerhard,dipak_kandel,francesco_mureddu,ekrem_tekinoez,ruven_waldner,christian_bode,yaghy_peter,manuel_endres,tobias_elie,sankari_hilael,jacqueline_schroeder,florian_treml,julian_schreiner,jilly_hu,sheilla_campos_o,alexander_kunith,marc_bloch,depraute_rene,matrai_peter</t>
   </si>
   <si>
-    <t>mikkel_knagenhjelm,haakon_klem,magne_heggemoen,leonarnt_nasai,kristiane_larsson,ola_dalby,ola_smines,haakon_klette,ali_kazmi,sammy_hussain,josephus_padilla,jingyi_qu,jonchristian_aardal,jangir_taher,sunniva_leonsen,stine_skyseth,marthe_grindalen,stig_lura,manbir_singh,jawad_afzali,jermaine_odom,martin_widing,drazen_duric,sebastian_huus,kai_parsa,william_tjaum,tayyab_intasar,magnus_lovrod,jalil_saleem,renate_eliesen1,jeppe_schjerpen,sara_meloysund,vijay_sharma,glenn_wallander,alexander_spiridonov,andreas_nyman,marius_bratli,sefa_cabar,sebastian_hellerud,marius_hayler,andreas_kyriakou1,pawel_frackowiak,romina_dehzani,monica_sand,farid_ofkir,artem_garibian,karol_wodyk,sadia_Aden_Mohamed,faiz_aslam,kjersti_naeringsrud,mathias_lindbeck,eirik_aspaas,karolina_wolnik,per_brandvik,asbjoern_mitusch,jay_murugananthan,jimmy_nguyen,simon_rask,an_ho,tom_brueland, lovepreet_singh, usman_abbas1, magne_heggemoen,zhongye_xue1,marianne_moelmen, steinar_sundelin</t>
-  </si>
-  <si>
-    <t>georg_bruce,andrew_parsons,marcel_bartelik,roberto_pavon,michael_hathaway,tom_bauer,daniel_mergler,philipp_maier,scott_baines,minh_tran,stephan_schulz,chutong_liu,daniel_sturm,stephan_mayer,sven_muckert,sebastian_hillenbach,devis_duong,behnoud_behmanesh,matthias_becher,lisong_meng,bjoern_baumann,ole_gravenhorst,robin_haeger</t>
-  </si>
-  <si>
-    <t>boris_mihailovic,stefan_gerea,robin_roosenstein,simone_barnabei,maxime_gottlieb,bob_valk,willemien_hobbelink,marco_verweij,tim_weener,ruben_keuter,luis_portas,ted_olsthoorn,joachim_pach,jasper_deman,tristan_hamelink,derk_timmer,marcel_rooijen,roelof_kluiver,yang_huang,julien_luijten,arun_paragh,clare_mummery,johan_emanuelsson,tim_noort,minko_sijpestein,adem_yerlikaya,vas_morrien,bana_boubou,brian_zhang,koen_peters,johnny_cheung,joris_coolen,maarten_mulder,koen_swennen,pepijn_gregorowitsch,yoram_hout,thijs_meijling,connor_mccoy,santo_bravo,mark_heiligers,daan_dorp,onno_duimel,gert_thomas,erwin_wolting,silvia_leeuw,nadim_mohammad,wenwen_jiang,wouter_hollander,wouter_hollander,shushan_khachatryan,robbie_maes, berry_spee,syang_liu,quinten_robertz,rutger_berg, katalin_konye,richard_wijk,renata_wolak, syang_liu</t>
+    <t>mikkel_knagenhjelm,haakon_klem,magne_heggemoen,leonarnt_nasai,kristiane_larsson,ola_dalby,ola_smines,haakon_klette,ali_kazmi,sammy_hussain,josephus_padilla,jingyi_qu,jonchristian_aardal,jangir_taher,sunniva_leonsen,stine_skyseth,marthe_grindalen,stig_lura,manbir_singh,jawad_afzali,jermaine_odom,martin_widing,drazen_duric,sebastian_huus,kai_parsa,william_tjaum,tayyab_intasar,magnus_lovrod,jalil_saleem,renate_eliesen1,jeppe_schjerpen,sara_meloysund,vijay_sharma,glenn_wallander,alexander_spiridonov,andreas_nyman,marius_bratli,sefa_cabar,sebastian_hellerud,marius_hayler,andreas_kyriakou1,pawel_frackowiak,romina_dehzani,monica_sand,farid_ofkir,artem_garibian,karol_wodyk,sadia_Aden_Mohamed,faiz_aslam,kjersti_naeringsrud,mathias_lindbeck,eirik_aspaas,karolina_wolnik,per_brandvik,asbjoern_mitusch,jay_murugananthan,jimmy_nguyen,simon_rask,an_ho,tom_brueland, lovepreet_singh, usman_abbas1, magne_heggemoen,zhongye_xue1,marianne_moelmen, steinar_sundelin,espen_byrjall</t>
+  </si>
+  <si>
+    <t>georg_bruce,andrew_parsons,marcel_bartelik,roberto_pavon,michael_hathaway,tom_bauer,daniel_mergler,philipp_maier,scott_baines,minh_tran,stephan_schulz,chutong_liu,daniel_sturm,stephan_mayer,sven_muckert,sebastian_hillenbach,devis_duong,behnoud_behmanesh,matthias_becher,lisong_meng,bjoern_baumann,ole_gravenhorst,robin_haeger,ralph_kranz-acting</t>
+  </si>
+  <si>
+    <t>boris_mihailovic,stefan_gerea,robin_roosenstein,simone_barnabei,maxime_gottlieb,bob_valk,willemien_hobbelink,marco_verweij,tim_weener,ruben_keuter,luis_portas,ted_olsthoorn,joachim_pach,jasper_deman,tristan_hamelink,derk_timmer,marcel_rooijen,roelof_kluiver,yang_huang,julien_luijten,arun_paragh,clare_mummery,johan_emanuelsson,tim_noort,minko_sijpestein,adem_yerlikaya,vas_morrien,bana_boubou,brian_zhang,koen_peters,johnny_cheung,joris_coolen,maarten_mulder,koen_swennen,pepijn_gregorowitsch,yoram_hout,thijs_meijling,connor_mccoy,santo_bravo,mark_heiligers,daan_dorp,onno_duimel,gert_thomas,erwin_wolting,silvia_leeuw,nadim_mohammad,wenwen_jiang,wouter_hollander,wouter_hollander,shushan_khachatryan,robbie_maes, berry_spee,syang_liu,quinten_robertz,rutger_berg, katalin_konye,richard_wijk,renata_wolak, syang_liu,daniel_groot</t>
   </si>
   <si>
     <t>marc_hatt,mads_laustsen,daniel_dalsgaard,camilla_bowlin,hasan_abbasi,danni_dahl,christian_neergaard,maria_bonnerup,rasmus_jorgensen,anja_bruun,christian_almind,daniel_saxov,frederik_rorth,nick_nielsen,jonathan_stage,mara_pitiriciu,dejvid_noinovic,paolo_cova,akos_kiss,pernille_vive,rasmus_huus,patrick_hogenhav,jan_bierstedt,simon_mueller,marie_leeuwen,peter_marquard,alice_bontridder,martin_rieder,loic_helleputte</t>
   </si>
   <si>
-    <t>andreas_loeoev,kenneth_forslund,christel_molin,sebastian_kare,rashed_almawed,carin_lundberg,robert_said,frida_eriksson,marcel_cucu,johanna_nilsson,niklas_gustafson,uffe_gustafsson,adrian_kare,gustaf_sjoeholm,louise_johansson,david_jonsson,erica_blomberg,mike_blomquist,karzan_mirza,robin_wiman,ackis_grammenidis,elias_said,rabih_botrous,daniel_erdtman,mattias_lundgren,janerik_eriksson,victor_lingfjord,jenny_samuelsson,sam_lindfors,fredrik_aslund1,chan_jun,emil_andersson, rikard_svensson,paula_ramirez, kajsa_ivansson,yu_huang6</t>
+    <t>andreas_loeoev,kenneth_forslund,christel_molin,sebastian_kare,rashed_almawed,carin_lundberg,robert_said,frida_eriksson,marcel_cucu,johanna_nilsson,niklas_gustafson,uffe_gustafsson,adrian_kare,gustaf_sjoeholm,louise_johansson,david_jonsson,erica_blomberg,mike_blomquist,karzan_mirza,robin_wiman,ackis_grammenidis,elias_said,rabih_botrous,daniel_erdtman,mattias_lundgren,janerik_eriksson,victor_lingfjord,jenny_samuelsson,sam_lindfors,fredrik_aslund1,chan_jun,emil_andersson, rikard_svensson,paula_ramirez, kajsa_ivansson,yu_huang6,kajsa_ivansson</t>
   </si>
   <si>
     <t>matt_galvin,tom_wharfe,jon_higgins</t>
@@ -137,6 +140,9 @@
   </si>
   <si>
     <t>yongmou_huang</t>
+  </si>
+  <si>
+    <t>mads_pedersen</t>
   </si>
   <si>
     <t>Germany</t>
@@ -521,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,10 +558,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,16 +572,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,13 +592,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -603,13 +609,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -620,13 +626,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -637,13 +643,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -654,10 +660,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -668,13 +674,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -685,13 +691,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -702,16 +708,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -722,13 +728,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -739,13 +745,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -756,13 +762,13 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -773,10 +779,10 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -787,10 +793,10 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -801,10 +807,10 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -815,10 +821,10 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -829,10 +835,24 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="D19" t="s">
-        <v>40</v>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/helper/City.xlsx
+++ b/helper/City.xlsx
@@ -100,7 +100,7 @@
     <t>roy_kern,maximilian_sand,niklas_hirth,shanan_lasrado,dennis_gerhard,dipak_kandel,francesco_mureddu,ekrem_tekinoez,ruven_waldner,christian_bode,yaghy_peter,manuel_endres,tobias_elie,sankari_hilael,jacqueline_schroeder,florian_treml,julian_schreiner,jilly_hu,sheilla_campos_o,alexander_kunith,marc_bloch,depraute_rene,matrai_peter</t>
   </si>
   <si>
-    <t>mikkel_knagenhjelm,haakon_klem,magne_heggemoen,leonarnt_nasai,kristiane_larsson,ola_dalby,ola_smines,haakon_klette,ali_kazmi,sammy_hussain,josephus_padilla,jingyi_qu,jonchristian_aardal,jangir_taher,sunniva_leonsen,stine_skyseth,marthe_grindalen,stig_lura,manbir_singh,jawad_afzali,jermaine_odom,martin_widing,drazen_duric,sebastian_huus,kai_parsa,william_tjaum,tayyab_intasar,magnus_lovrod,jalil_saleem,renate_eliesen1,jeppe_schjerpen,sara_meloysund,vijay_sharma,glenn_wallander,alexander_spiridonov,andreas_nyman,marius_bratli,sefa_cabar,sebastian_hellerud,marius_hayler,andreas_kyriakou1,pawel_frackowiak,romina_dehzani,monica_sand,farid_ofkir,artem_garibian,karol_wodyk,sadia_Aden_Mohamed,faiz_aslam,kjersti_naeringsrud,mathias_lindbeck,eirik_aspaas,karolina_wolnik,per_brandvik,asbjoern_mitusch,jay_murugananthan,jimmy_nguyen,simon_rask,an_ho,tom_brueland, lovepreet_singh, usman_abbas1, magne_heggemoen,zhongye_xue1,marianne_moelmen, steinar_sundelin,espen_byrjall</t>
+    <t>mikkel_knagenhjelm,haakon_klem,magne_heggemoen,leonarnt_nasai,kristiane_larsson,ola_dalby,ola_smines,haakon_klette,ali_kazmi,sammy_hussain,josephus_padilla,jingyi_qu,jonchristian_aardal,jangir_taher,sunniva_leonsen,stine_skyseth,marthe_grindalen,stig_lura,manbir_singh,jawad_afzali,jermaine_odom,martin_widing,drazen_duric,sebastian_huus,kai_parsa,william_tjaum,tayyab_intasar,magnus_lovrod,jalil_saleem,renate_eliesen1,jeppe_schjerpen,sara_meloysund,vijay_sharma,glenn_wallander,alexander_spiridonov,andreas_nyman,marius_bratli,sefa_cabar,sebastian_hellerud,marius_hayler,andreas_kyriakou1,pawel_frackowiak,romina_dehzani,monica_sand,farid_ofkir,artem_garibian,karol_wodyk,sadia_Aden_Mohamed,faiz_aslam,kjersti_naeringsrud,mathias_lindbeck,eirik_aspaas,karolina_wolnik,per_brandvik,asbjoern_mitusch,jay_murugananthan,jimmy_nguyen,simon_rask,an_ho,tom_brueland, lovepreet_singh, usman_abbas1, magne_heggemoen,zhongye_xue1,marianne_moelmen, steinar_sundelin,espen_byrjall,yini_shi</t>
   </si>
   <si>
     <t>georg_bruce,andrew_parsons,marcel_bartelik,roberto_pavon,michael_hathaway,tom_bauer,daniel_mergler,philipp_maier,scott_baines,minh_tran,stephan_schulz,chutong_liu,daniel_sturm,stephan_mayer,sven_muckert,sebastian_hillenbach,devis_duong,behnoud_behmanesh,matthias_becher,lisong_meng,bjoern_baumann,ole_gravenhorst,robin_haeger,ralph_kranz-acting</t>
@@ -112,7 +112,7 @@
     <t>marc_hatt,mads_laustsen,daniel_dalsgaard,camilla_bowlin,hasan_abbasi,danni_dahl,christian_neergaard,maria_bonnerup,rasmus_jorgensen,anja_bruun,christian_almind,daniel_saxov,frederik_rorth,nick_nielsen,jonathan_stage,mara_pitiriciu,dejvid_noinovic,paolo_cova,akos_kiss,pernille_vive,rasmus_huus,patrick_hogenhav,jan_bierstedt,simon_mueller,marie_leeuwen,peter_marquard,alice_bontridder,martin_rieder,loic_helleputte</t>
   </si>
   <si>
-    <t>andreas_loeoev,kenneth_forslund,christel_molin,sebastian_kare,rashed_almawed,carin_lundberg,robert_said,frida_eriksson,marcel_cucu,johanna_nilsson,niklas_gustafson,uffe_gustafsson,adrian_kare,gustaf_sjoeholm,louise_johansson,david_jonsson,erica_blomberg,mike_blomquist,karzan_mirza,robin_wiman,ackis_grammenidis,elias_said,rabih_botrous,daniel_erdtman,mattias_lundgren,janerik_eriksson,victor_lingfjord,jenny_samuelsson,sam_lindfors,fredrik_aslund1,chan_jun,emil_andersson, rikard_svensson,paula_ramirez, kajsa_ivansson,yu_huang6,kajsa_ivansson</t>
+    <t>andreas_loeoev,kenneth_forslund,christel_molin,sebastian_kare,rashed_almawed,carin_lundberg,robert_said,frida_eriksson,marcel_cucu,johanna_nilsson,niklas_gustafson,uffe_gustafsson,adrian_kare,gustaf_sjoeholm,louise_johansson,david_jonsson,erica_blomberg,mike_blomquist,karzan_mirza,robin_wiman,ackis_grammenidis,elias_said,rabih_botrous,daniel_erdtman,mattias_lundgren,janerik_eriksson,victor_lingfjord,jenny_samuelsson,sam_lindfors,fredrik_aslund1,chan_jun, rikard_svensson,paula_ramirez, kajsa_ivansson,yu_huang6,kajsa_ivansson</t>
   </si>
   <si>
     <t>matt_galvin,tom_wharfe,jon_higgins</t>

--- a/helper/City.xlsx
+++ b/helper/City.xlsx
@@ -91,28 +91,28 @@
     <t>Click Me</t>
   </si>
   <si>
-    <t>chris_chen1,winnie_wu1,hailee_han,christian_sieling,chenqi_peng,shaohua_guo,wenchao_cui1,joy_zhu1,joy_yin,effy_song,yujie_jia,evelyn_zhao,maxine_yu,zitong_pan,meiling_wu,ziye_chen,liam_lu,wenlu_ma,hiroshi_watari,sarah_opfer,charlotte_liu1,chen_gong,echo_zeng,tristan_vonballuseck,sizhe_huang,anastasia_yu,di_hu1,novak_birisic,sami_li,caesar_qian,zoey_li1,daisy_xiao,wei_qiang,eunice_ho,hongyi_ji,jing_hu,qianling_duan,timo_herrmann,jorry_zhou,sherry_li3,jerry_liu3,dale_li,wanli_ren,julie_jiang,justin_chen1,hun_huang,jessica_fu,ranee_miao,alexandre_gallo,heming_li,bella_lin,shuang_wu3,yantao_zhou,averie_zhu,bingqing_tong1,helen_baerbock, jianwei_yin, xilian_yu,richard_zhang1, hao_yang1, nicky_heidrich,jiabao_xu,jackson_xu1,beckie_fan,brandy_lu, sharon_zhou, finn_xue,amber_zhu,jessie_xu,lina_liu,chao_li19,yongshi_xu, jiajun_yuan, fangpin_weng,chris_di,chengguo_shi,sarah_ding,dongxiao_sun,finn_xue,henry_shen,vincent_wen,tina_fan,robert_huang,zhongjie_fu,mingqiang_li, junye_shao, haiyun_zhou,stephen_liu</t>
-  </si>
-  <si>
-    <t>moritz_croessmann,isabell_delitz,tobias_niederhofer,waled_enani,patrick_mitchell,ryan_stodden,gerald_krainer,juliane_weinschenk,anastasiia_kovalenko,julien_jung,benjamin_hirschfeld,elise_chen,chan_jun,marlies_hagenbach,andreas_roehl,sebastian_buesing,alexander_beier,daniel_wadle,karam_alnafous,saeed_erfani,dawid_mindur,sedat_taspinar,moritz_bayer,sean_richardson,marco_spiertz,fernanda_mejia,philipp_leinekugel,julia_bock,laura_peschke,martin_hock,belinda_ulrich,jan_bode,jan_krueger,simon_fiala,antonia_hauf,marco_wegner,stefan_pielka,philip_aschendorf,alexander_kern,leon_reiff,dennis_konieczny,harald_krist,ahmad_elkadi,kangrui_wang,zakaria_khalaf,georgina_treen,anastasia_kozachenko,fab_scognamiglio,silvan_mesic,beier_zhang,sven_conrad,julien_braunholz,stephane_burger,marina_paradiso,andreas_sedlak,emilie_jung,claudia_huebner,yi_shen3,claudio_felice,jochen_elster,wadim_buchmueller,gregory_anderson,ralph_kranz,fabian_holst,veronica_akerblad,patricia_hammes,florian_fischer,christian_wiegand,alissia_lehle,tobias_beier,tanja_pyka,stephanie_strobel,aldo_rosales,ana_bjelcic_o,anja_plank1,vlad_tarverdov,vassil_loukarsky_o,catherine_zhu,charilaos_kantas,siyang_chen2,chi_lo_o,dennis_mujic,emilia_dera_o,estefania_velez,fab_scognamiglio,julia_lichtmannecker,daniela_wimmer_nio_io,yue_ma2,Pallab_medhi,jingqi_zhuang,marin_scholz,peng_wang17,mohamed_rizwan,moritz_wefelscheid,zhen_lai,benjamin_steinmetz,christian_rebo,francis_ji,lukas_storch,niklas_andersson,arnaud_rongy, fatima_galean,daniel_medawar,tobias_schrempf,sebastian_salera,marius_keil,pep_pujolmur,stefan_schneider,olga_khryapchenkova,yalcin_parlak, tino_tezel</t>
+    <t>chris_chen1,winnie_wu1,hailee_han,christian_sieling,chenqi_peng,shaohua_guo,wenchao_cui1,joy_zhu1,joy_yin,effy_song,yujie_jia,evelyn_zhao,maxine_yu,zitong_pan,meiling_wu,ziye_chen,liam_lu,wenlu_ma,hiroshi_watari,sarah_opfer,charlotte_liu1,chen_gong,echo_zeng,tristan_vonballuseck,sizhe_huang,anastasia_yu,di_hu1,novak_birisic,sami_li,caesar_qian,zoey_li1,daisy_xiao,wei_qiang,eunice_ho,hongyi_ji,jing_hu,qianling_duan,timo_herrmann,jorry_zhou,sherry_li3,jerry_liu3,dale_li,wanli_ren,julie_jiang,justin_chen1,hun_huang,jessica_fu,ranee_miao,alexandre_gallo,heming_li,bella_lin,shuang_wu3,yantao_zhou,averie_zhu,bingqing_tong1,helen_baerbock, jianwei_yin, xilian_yu,richard_zhang1, hao_yang1, nicky_heidrich,jiabao_xu,jackson_xu1,beckie_fan,brandy_lu, sharon_zhou,amber_zhu,jessie_xu,lina_liu,chao_li19,yongshi_xu, jiajun_yuan, fangpin_weng,chengguo_shi,sarah_ding,dongxiao_sun,finn_xue,henry_shen,vincent_wen,tina_fan,robert_huang,zhongjie_fu,mingqiang_li, junye_shao, haiyun_zhou,stephen_liu</t>
+  </si>
+  <si>
+    <t>moritz_croessmann,isabell_delitz,tobias_niederhofer,waled_enani,patrick_mitchell,ryan_stodden,gerald_krainer,juliane_weinschenk,anastasiia_kovalenko,julien_jung,benjamin_hirschfeld,elise_chen,chan_jun,marlies_hagenbach,andreas_roehl,sebastian_buesing,alexander_beier,daniel_wadle,karam_alnafous,saeed_erfani,dawid_mindur,sedat_taspinar,moritz_bayer,sean_richardson,marco_spiertz,fernanda_mejia,philipp_leinekugel,julia_bock,laura_peschke,martin_hock,belinda_ulrich,jan_bode,jan_krueger,simon_fiala,antonia_hauf,marco_wegner,stefan_pielka,philip_aschendorf,alexander_kern,leon_reiff,dennis_konieczny,harald_krist,ahmad_elkadi,kangrui_wang,zakaria_khalaf,georgina_treen,anastasia_kozachenko,silvan_mesic,beier_zhang,sven_conrad,julien_braunholz,stephane_burger,marina_paradiso,andreas_sedlak,emilie_jung,claudia_huebner,yi_shen3,claudio_felice,jochen_elster,wadim_buchmueller,gregory_anderson,ralph_kranz,fabian_holst,veronica_akerblad,patricia_hammes,florian_fischer,christian_wiegand,alissia_lehle,tobias_beier,tanja_pyka,stephanie_strobel,aldo_rosales,ana_bjelcic_o,anja_plank1,vlad_tarverdov,vassil_loukarsky_o,catherine_zhu,charilaos_kantas,siyang_chen2,chi_lo_o,dennis_mujic,emilia_dera_o,estefania_velez,fab_scognamiglio,julia_lichtmannecker,daniela_wimmer_nio_io,yue_ma2,Pallab_medhi,jingqi_zhuang,marin_scholz,peng_wang17,mohamed_rizwan,moritz_wefelscheid,zhen_lai,benjamin_steinmetz,christian_rebo,francis_ji,lukas_storch,niklas_andersson,arnaud_rongy, fatima_galean,daniel_medawar,tobias_schrempf,sebastian_salera,marius_keil,pep_pujolmur,stefan_schneider,olga_khryapchenkova,yalcin_parlak, tino_tezel</t>
   </si>
   <si>
     <t>roy_kern,maximilian_sand,niklas_hirth,shanan_lasrado,dennis_gerhard,dipak_kandel,francesco_mureddu,ekrem_tekinoez,ruven_waldner,christian_bode,yaghy_peter,manuel_endres,tobias_elie,sankari_hilael,jacqueline_schroeder,florian_treml,julian_schreiner,jilly_hu,sheilla_campos_o,alexander_kunith,marc_bloch,depraute_rene,matrai_peter</t>
   </si>
   <si>
-    <t>mikkel_knagenhjelm,haakon_klem,magne_heggemoen,leonarnt_nasai,kristiane_larsson,ola_dalby,ola_smines,haakon_klette,ali_kazmi,sammy_hussain,josephus_padilla,jingyi_qu,jonchristian_aardal,jangir_taher,sunniva_leonsen,stine_skyseth,marthe_grindalen,stig_lura,manbir_singh,jawad_afzali,jermaine_odom,martin_widing,drazen_duric,sebastian_huus,kai_parsa,william_tjaum,tayyab_intasar,magnus_lovrod,jalil_saleem,renate_eliesen1,jeppe_schjerpen,sara_meloysund,vijay_sharma,glenn_wallander,alexander_spiridonov,andreas_nyman,marius_bratli,sefa_cabar,sebastian_hellerud,marius_hayler,andreas_kyriakou1,pawel_frackowiak,romina_dehzani,monica_sand,farid_ofkir,artem_garibian,karol_wodyk,sadia_Aden_Mohamed,faiz_aslam,kjersti_naeringsrud,mathias_lindbeck,eirik_aspaas,karolina_wolnik,per_brandvik,asbjoern_mitusch,jay_murugananthan,jimmy_nguyen,simon_rask,an_ho,tom_brueland, lovepreet_singh, usman_abbas1, magne_heggemoen,zhongye_xue1,marianne_moelmen, steinar_sundelin,espen_byrjall,yini_shi</t>
+    <t>mikkel_knagenhjelm,haakon_klem,magne_heggemoen,leonarnt_nasai,kristiane_larsson,ola_dalby,ola_smines,haakon_klette,ali_kazmi,sammy_hussain,josephus_padilla,jingyi_qu,jonchristian_aardal,jangir_taher,sunniva_leonsen,stine_skyseth,marthe_grindalen,stig_lura,manbir_singh,jawad_afzali,jermaine_odom,martin_widing,drazen_duric,sebastian_huus,kai_parsa,william_tjaum,tayyab_intasar,magnus_lovrod,jalil_saleem,renate_eliesen1,jeppe_schjerpen,sara_meloysund,vijay_sharma,glenn_wallander,alexander_spiridonov,andreas_nyman,marius_bratli,sefa_cabar,sebastian_hellerud,marius_hayler,andreas_kyriakou1,pawel_frackowiak,romina_dehzani,monica_sand,farid_ofkir,artem_garibian,karol_wodyk,sadia_Aden_Mohamed,faiz_aslam,kjersti_naeringsrud,mathias_lindbeck,eirik_aspaas,karolina_wolnik,per_brandvik,asbjoern_mitusch,jay_murugananthan,jimmy_nguyen,simon_rask,an_ho,tom_brueland, lovepreet_singh, usman_abbas1,zhongye_xue1,marianne_moelmen, steinar_sundelin,espen_byrjall,yini_shi</t>
   </si>
   <si>
     <t>georg_bruce,andrew_parsons,marcel_bartelik,roberto_pavon,michael_hathaway,tom_bauer,daniel_mergler,philipp_maier,scott_baines,minh_tran,stephan_schulz,chutong_liu,daniel_sturm,stephan_mayer,sven_muckert,sebastian_hillenbach,devis_duong,behnoud_behmanesh,matthias_becher,lisong_meng,bjoern_baumann,ole_gravenhorst,robin_haeger,ralph_kranz-acting</t>
   </si>
   <si>
-    <t>boris_mihailovic,stefan_gerea,robin_roosenstein,simone_barnabei,maxime_gottlieb,bob_valk,willemien_hobbelink,marco_verweij,tim_weener,ruben_keuter,luis_portas,ted_olsthoorn,joachim_pach,jasper_deman,tristan_hamelink,derk_timmer,marcel_rooijen,roelof_kluiver,yang_huang,julien_luijten,arun_paragh,clare_mummery,johan_emanuelsson,tim_noort,minko_sijpestein,adem_yerlikaya,vas_morrien,bana_boubou,brian_zhang,koen_peters,johnny_cheung,joris_coolen,maarten_mulder,koen_swennen,pepijn_gregorowitsch,yoram_hout,thijs_meijling,connor_mccoy,santo_bravo,mark_heiligers,daan_dorp,onno_duimel,gert_thomas,erwin_wolting,silvia_leeuw,nadim_mohammad,wenwen_jiang,wouter_hollander,wouter_hollander,shushan_khachatryan,robbie_maes, berry_spee,syang_liu,quinten_robertz,rutger_berg, katalin_konye,richard_wijk,renata_wolak, syang_liu,daniel_groot</t>
+    <t>boris_mihailovic,stefan_gerea,robin_roosenstein,simone_barnabei,maxime_gottlieb,bob_valk,willemien_hobbelink,marco_verweij,tim_weener,ruben_keuter,luis_portas,ted_olsthoorn,joachim_pach,jasper_deman,tristan_hamelink,derk_timmer,marcel_rooijen,roelof_kluiver,yang_huang,julien_luijten,arun_paragh,clare_mummery,johan_emanuelsson,tim_noort,minko_sijpestein,adem_yerlikaya,vas_morrien,bana_boubou,brian_zhang,koen_peters,johnny_cheung,joris_coolen,maarten_mulder,koen_swennen,pepijn_gregorowitsch,yoram_hout,thijs_meijling,connor_mccoy,santo_bravo,mark_heiligers,daan_dorp,onno_duimel,gert_thomas,erwin_wolting,silvia_leeuw,nadim_mohammad,wenwen_jiang,wouter_hollander,shushan_khachatryan,robbie_maes, berry_spee,quinten_robertz,rutger_berg, katalin_konye,richard_wijk,renata_wolak, syang_liu,daniel_groot</t>
   </si>
   <si>
     <t>marc_hatt,mads_laustsen,daniel_dalsgaard,camilla_bowlin,hasan_abbasi,danni_dahl,christian_neergaard,maria_bonnerup,rasmus_jorgensen,anja_bruun,christian_almind,daniel_saxov,frederik_rorth,nick_nielsen,jonathan_stage,mara_pitiriciu,dejvid_noinovic,paolo_cova,akos_kiss,pernille_vive,rasmus_huus,patrick_hogenhav,jan_bierstedt,simon_mueller,marie_leeuwen,peter_marquard,alice_bontridder,martin_rieder,loic_helleputte</t>
   </si>
   <si>
-    <t>andreas_loeoev,kenneth_forslund,christel_molin,sebastian_kare,rashed_almawed,carin_lundberg,robert_said,frida_eriksson,marcel_cucu,johanna_nilsson,niklas_gustafson,uffe_gustafsson,adrian_kare,gustaf_sjoeholm,louise_johansson,david_jonsson,erica_blomberg,mike_blomquist,karzan_mirza,robin_wiman,ackis_grammenidis,elias_said,rabih_botrous,daniel_erdtman,mattias_lundgren,janerik_eriksson,victor_lingfjord,jenny_samuelsson,sam_lindfors,fredrik_aslund1,chan_jun, rikard_svensson,paula_ramirez, kajsa_ivansson,yu_huang6,kajsa_ivansson</t>
+    <t>andreas_loeoev,kenneth_forslund,christel_molin,sebastian_kare,rashed_almawed,carin_lundberg,robert_said,frida_eriksson,marcel_cucu,johanna_nilsson,niklas_gustafson,uffe_gustafsson,adrian_kare,gustaf_sjoeholm,louise_johansson,david_jonsson,erica_blomberg,mike_blomquist,karzan_mirza,robin_wiman,ackis_grammenidis,elias_said,rabih_botrous,daniel_erdtman,mattias_lundgren,janerik_eriksson,victor_lingfjord,jenny_samuelsson,sam_lindfors,fredrik_aslund1, rikard_svensson,paula_ramirez,yu_huang6,kajsa_ivansson</t>
   </si>
   <si>
     <t>matt_galvin,tom_wharfe,jon_higgins</t>

--- a/helper/City.xlsx
+++ b/helper/City.xlsx
@@ -94,7 +94,7 @@
     <t>chris_chen1,winnie_wu1,hailee_han,christian_sieling,chenqi_peng,shaohua_guo,wenchao_cui1,joy_zhu1,joy_yin,effy_song,yujie_jia,evelyn_zhao,maxine_yu,zitong_pan,meiling_wu,ziye_chen,liam_lu,wenlu_ma,hiroshi_watari,sarah_opfer,charlotte_liu1,chen_gong,echo_zeng,tristan_vonballuseck,sizhe_huang,anastasia_yu,di_hu1,novak_birisic,sami_li,caesar_qian,zoey_li1,daisy_xiao,wei_qiang,eunice_ho,hongyi_ji,jing_hu,qianling_duan,timo_herrmann,jorry_zhou,sherry_li3,jerry_liu3,dale_li,wanli_ren,julie_jiang,justin_chen1,hun_huang,jessica_fu,ranee_miao,alexandre_gallo,heming_li,bella_lin,shuang_wu3,yantao_zhou,averie_zhu,bingqing_tong1,helen_baerbock, jianwei_yin, xilian_yu,richard_zhang1, hao_yang1, nicky_heidrich,jiabao_xu,jackson_xu1,beckie_fan,brandy_lu, sharon_zhou,amber_zhu,jessie_xu,lina_liu,chao_li19,yongshi_xu, jiajun_yuan, fangpin_weng,chengguo_shi,sarah_ding,dongxiao_sun,finn_xue,henry_shen,vincent_wen,tina_fan,robert_huang,zhongjie_fu,mingqiang_li, junye_shao, haiyun_zhou,stephen_liu</t>
   </si>
   <si>
-    <t>moritz_croessmann,isabell_delitz,tobias_niederhofer,waled_enani,patrick_mitchell,ryan_stodden,gerald_krainer,juliane_weinschenk,anastasiia_kovalenko,julien_jung,benjamin_hirschfeld,elise_chen,chan_jun,marlies_hagenbach,andreas_roehl,sebastian_buesing,alexander_beier,daniel_wadle,karam_alnafous,saeed_erfani,dawid_mindur,sedat_taspinar,moritz_bayer,sean_richardson,marco_spiertz,fernanda_mejia,philipp_leinekugel,julia_bock,laura_peschke,martin_hock,belinda_ulrich,jan_bode,jan_krueger,simon_fiala,antonia_hauf,marco_wegner,stefan_pielka,philip_aschendorf,alexander_kern,leon_reiff,dennis_konieczny,harald_krist,ahmad_elkadi,kangrui_wang,zakaria_khalaf,georgina_treen,anastasia_kozachenko,silvan_mesic,beier_zhang,sven_conrad,julien_braunholz,stephane_burger,marina_paradiso,andreas_sedlak,emilie_jung,claudia_huebner,yi_shen3,claudio_felice,jochen_elster,wadim_buchmueller,gregory_anderson,ralph_kranz,fabian_holst,veronica_akerblad,patricia_hammes,florian_fischer,christian_wiegand,alissia_lehle,tobias_beier,tanja_pyka,stephanie_strobel,aldo_rosales,ana_bjelcic_o,anja_plank1,vlad_tarverdov,vassil_loukarsky_o,catherine_zhu,charilaos_kantas,siyang_chen2,chi_lo_o,dennis_mujic,emilia_dera_o,estefania_velez,fab_scognamiglio,julia_lichtmannecker,daniela_wimmer_nio_io,yue_ma2,Pallab_medhi,jingqi_zhuang,marin_scholz,peng_wang17,mohamed_rizwan,moritz_wefelscheid,zhen_lai,benjamin_steinmetz,christian_rebo,francis_ji,lukas_storch,niklas_andersson,arnaud_rongy, fatima_galean,daniel_medawar,tobias_schrempf,sebastian_salera,marius_keil,pep_pujolmur,stefan_schneider,olga_khryapchenkova,yalcin_parlak, tino_tezel</t>
+    <t>moritz_croessmann,isabell_delitz,tobias_niederhofer,waled_enani,patrick_mitchell,ryan_stodden,gerald_krainer,juliane_weinschenk,anastasiia_kovalenko,julien_jung,benjamin_hirschfeld,elise_chen,chan_jun,marlies_hagenbach,andreas_roehl,sebastian_buesing,alexander_beier,daniel_wadle,karam_alnafous,saeed_erfani,dawid_mindur,sedat_taspinar,moritz_bayer,sean_richardson,marco_spiertz,fernanda_mejia,philipp_leinekugel,julia_bock,martin_hock,belinda_ulrich,jan_bode,jan_krueger,simon_fiala,antonia_hauf,marco_wegner,stefan_pielka,philip_aschendorf,alexander_kern,leon_reiff,dennis_konieczny,harald_krist,ahmad_elkadi,kangrui_wang,zakaria_khalaf,georgina_treen,anastasia_kozachenko,silvan_mesic,beier_zhang,sven_conrad,julien_braunholz,stephane_burger,marina_paradiso,andreas_sedlak,emilie_jung,claudia_huebner,yi_shen3,claudio_felice,jochen_elster,wadim_buchmueller,gregory_anderson,ralph_kranz,fabian_holst,veronica_akerblad,patricia_hammes,florian_fischer,christian_wiegand,alissia_lehle,tobias_beier,tanja_pyka,stephanie_strobel,aldo_rosales,ana_bjelcic_o,anja_plank1,vlad_tarverdov,vassil_loukarsky_o,catherine_zhu,charilaos_kantas,siyang_chen2,chi_lo_o,dennis_mujic,emilia_dera_o,estefania_velez,fab_scognamiglio,julia_lichtmannecker,daniela_wimmer_nio_io,yue_ma2,Pallab_medhi,jingqi_zhuang,marin_scholz,peng_wang17,mohamed_rizwan,moritz_wefelscheid,zhen_lai,benjamin_steinmetz,christian_rebo,francis_ji,lukas_storch,niklas_andersson,arnaud_rongy, fatima_galean,daniel_medawar,tobias_schrempf,sebastian_salera,marius_keil,pep_pujolmur,stefan_schneider,olga_khryapchenkova,yalcin_parlak, tino_tezel</t>
   </si>
   <si>
     <t>roy_kern,maximilian_sand,niklas_hirth,shanan_lasrado,dennis_gerhard,dipak_kandel,francesco_mureddu,ekrem_tekinoez,ruven_waldner,christian_bode,yaghy_peter,manuel_endres,tobias_elie,sankari_hilael,jacqueline_schroeder,florian_treml,julian_schreiner,jilly_hu,sheilla_campos_o,alexander_kunith,marc_bloch,depraute_rene,matrai_peter</t>
